--- a/ContentData/SuspectData.xlsx
+++ b/ContentData/SuspectData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\archive_c#\LPCallouts\ContentData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ckoec\Documents\GitHub\LPCallouts\ContentData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C459A2-9DE9-4077-B741-50F67BEEE2C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SuspectData" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="714">
   <si>
     <t>LOCATIONS</t>
   </si>
@@ -587,27 +588,9 @@
     <t>Modelname</t>
   </si>
   <si>
-    <t>AnimationDir</t>
-  </si>
-  <si>
-    <t>AnimationName</t>
-  </si>
-  <si>
-    <t>AnimationFlags</t>
-  </si>
-  <si>
-    <t>Loop</t>
-  </si>
-  <si>
     <t>_Normal</t>
   </si>
   <si>
-    <t>missmic2@enemy</t>
-  </si>
-  <si>
-    <t>smoking_loop</t>
-  </si>
-  <si>
     <t>a_m_y_vinewood_02</t>
   </si>
   <si>
@@ -2178,12 +2161,18 @@
   </si>
   <si>
     <t>-2306.14f, 4198.79f, 40.19f</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>WORLD_HUMAN_SMOKING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2586,11 +2575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="D311" sqref="D311"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3676,22 +3665,22 @@
     </row>
     <row r="21" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>22</v>
@@ -3700,22 +3689,22 @@
         <v>59</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O21" s="5" t="s">
         <v>30</v>
@@ -3729,22 +3718,22 @@
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>22</v>
@@ -3753,22 +3742,22 @@
         <v>22</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>30</v>
@@ -3782,22 +3771,22 @@
     </row>
     <row r="23" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>59</v>
@@ -3806,22 +3795,22 @@
         <v>27</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O23" s="5" t="s">
         <v>30</v>
@@ -3835,22 +3824,22 @@
     </row>
     <row r="24" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>59</v>
@@ -3859,22 +3848,22 @@
         <v>22</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O24" s="5" t="s">
         <v>30</v>
@@ -3888,22 +3877,22 @@
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>37</v>
@@ -3912,22 +3901,22 @@
         <v>59</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>30</v>
@@ -3941,22 +3930,22 @@
     </row>
     <row r="26" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>27</v>
@@ -3965,22 +3954,22 @@
         <v>22</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O26" s="5" t="s">
         <v>30</v>
@@ -3994,22 +3983,22 @@
     </row>
     <row r="27" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>48</v>
@@ -4018,22 +4007,22 @@
         <v>22</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O27" s="5" t="s">
         <v>30</v>
@@ -4047,22 +4036,22 @@
     </row>
     <row r="28" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>48</v>
@@ -4071,22 +4060,22 @@
         <v>59</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O28" s="5" t="s">
         <v>30</v>
@@ -4100,22 +4089,22 @@
     </row>
     <row r="29" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>27</v>
@@ -4124,22 +4113,22 @@
         <v>27</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O29" s="5" t="s">
         <v>30</v>
@@ -4153,22 +4142,22 @@
     </row>
     <row r="30" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>22</v>
@@ -4177,22 +4166,22 @@
         <v>27</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>30</v>
@@ -4206,22 +4195,22 @@
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>22</v>
@@ -4230,22 +4219,22 @@
         <v>27</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O31" s="5" t="s">
         <v>30</v>
@@ -4259,22 +4248,22 @@
     </row>
     <row r="32" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>37</v>
@@ -4283,22 +4272,22 @@
         <v>22</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>30</v>
@@ -4312,22 +4301,22 @@
     </row>
     <row r="33" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>22</v>
@@ -4336,22 +4325,22 @@
         <v>27</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>30</v>
@@ -4365,22 +4354,22 @@
     </row>
     <row r="34" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>37</v>
@@ -4389,22 +4378,22 @@
         <v>22</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>30</v>
@@ -4418,22 +4407,22 @@
     </row>
     <row r="35" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>47</v>
@@ -4442,22 +4431,22 @@
         <v>48</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N35" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>30</v>
@@ -4471,22 +4460,22 @@
     </row>
     <row r="36" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>59</v>
@@ -4495,22 +4484,22 @@
         <v>47</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N36" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>30</v>
@@ -4524,22 +4513,22 @@
     </row>
     <row r="37" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>22</v>
@@ -4548,22 +4537,22 @@
         <v>59</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N37" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>30</v>
@@ -4577,22 +4566,22 @@
     </row>
     <row r="38" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>22</v>
@@ -4601,22 +4590,22 @@
         <v>22</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>30</v>
@@ -4630,22 +4619,22 @@
     </row>
     <row r="39" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>59</v>
@@ -4654,22 +4643,22 @@
         <v>27</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="N39" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>30</v>
@@ -4683,22 +4672,22 @@
     </row>
     <row r="40" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>59</v>
@@ -4707,22 +4696,22 @@
         <v>22</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>30</v>
@@ -4736,22 +4725,22 @@
     </row>
     <row r="41" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G41" s="9" t="s">
         <v>22</v>
@@ -4763,13 +4752,13 @@
         <v>30</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K41" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>31</v>
@@ -4778,33 +4767,33 @@
         <v>31</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G42" s="9" t="s">
         <v>47</v>
@@ -4816,13 +4805,13 @@
         <v>30</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>31</v>
@@ -4831,36 +4820,36 @@
         <v>31</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P42" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q42" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="Q42" s="9" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>22</v>
@@ -4869,13 +4858,13 @@
         <v>30</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K43" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>31</v>
@@ -4884,33 +4873,33 @@
         <v>31</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>27</v>
@@ -4922,13 +4911,13 @@
         <v>30</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K44" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>31</v>
@@ -4937,33 +4926,33 @@
         <v>31</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>22</v>
@@ -4975,13 +4964,13 @@
         <v>30</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K45" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>31</v>
@@ -4990,36 +4979,36 @@
         <v>31</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>22</v>
@@ -5028,13 +5017,13 @@
         <v>30</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K46" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>31</v>
@@ -5043,36 +5032,36 @@
         <v>31</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>22</v>
@@ -5081,13 +5070,13 @@
         <v>30</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K47" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>31</v>
@@ -5096,36 +5085,36 @@
         <v>31</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="P47" s="9" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>48</v>
@@ -5134,13 +5123,13 @@
         <v>30</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K48" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>31</v>
@@ -5149,51 +5138,51 @@
         <v>31</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="P48" s="9" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q48" s="9" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G49" s="9" t="s">
         <v>47</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>30</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K49" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>31</v>
@@ -5202,51 +5191,51 @@
         <v>31</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="P49" s="9" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>30</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K50" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>31</v>
@@ -5255,51 +5244,51 @@
         <v>31</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="P50" s="9" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q50" s="9" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>59</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="I51" s="9" t="s">
         <v>30</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K51" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>31</v>
@@ -5308,51 +5297,51 @@
         <v>31</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="P51" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q51" s="9" t="s">
         <v>558</v>
-      </c>
-      <c r="Q51" s="9" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="I52" s="9" t="s">
         <v>30</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K52" s="9" t="s">
         <v>30</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>31</v>
@@ -5361,13 +5350,13 @@
         <v>31</v>
       </c>
       <c r="O52" s="9" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="P52" s="9" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q52" s="9" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="54" spans="1:17" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -5378,426 +5367,278 @@
         <v>186</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>189</v>
+        <v>712</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>190</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>190</v>
+        <v>713</v>
       </c>
     </row>
     <row r="57" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>190</v>
+        <v>713</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>190</v>
+        <v>713</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>190</v>
+        <v>713</v>
       </c>
     </row>
     <row r="60" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>190</v>
+        <v>713</v>
       </c>
     </row>
     <row r="61" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>190</v>
+        <v>713</v>
       </c>
     </row>
     <row r="62" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>190</v>
+        <v>713</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>190</v>
+        <v>713</v>
       </c>
     </row>
     <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" s="5" t="s">
+      <c r="C70" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="C72" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B70" s="5" t="s">
+      <c r="C75" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B71" s="7" t="s">
+      <c r="C76" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="B77" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="C77" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>186</v>
@@ -5805,336 +5646,336 @@
     </row>
     <row r="81" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="94" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="118" spans="1:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="119" spans="1:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="120" spans="1:4" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="122" spans="1:4" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6142,13 +5983,13 @@
         <v>18</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6156,13 +5997,13 @@
         <v>18</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6170,13 +6011,13 @@
         <v>18</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6184,13 +6025,13 @@
         <v>18</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="127" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6198,13 +6039,13 @@
         <v>18</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="128" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6212,13 +6053,13 @@
         <v>18</v>
       </c>
       <c r="B128" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="129" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6226,13 +6067,13 @@
         <v>18</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6240,13 +6081,13 @@
         <v>18</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6254,13 +6095,13 @@
         <v>18</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="132" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6268,13 +6109,13 @@
         <v>18</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6282,13 +6123,13 @@
         <v>18</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -6296,13 +6137,13 @@
         <v>18</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6310,13 +6151,13 @@
         <v>18</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6324,13 +6165,13 @@
         <v>18</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6338,13 +6179,13 @@
         <v>18</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6352,13 +6193,13 @@
         <v>18</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6366,13 +6207,13 @@
         <v>18</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6380,13 +6221,13 @@
         <v>18</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6394,13 +6235,13 @@
         <v>18</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="142" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6408,13 +6249,13 @@
         <v>18</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="143" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6422,13 +6263,13 @@
         <v>18</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C143" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C143" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="D143" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="144" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6436,13 +6277,13 @@
         <v>18</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="145" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6450,13 +6291,13 @@
         <v>18</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="146" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -6464,13 +6305,13 @@
         <v>18</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="147" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6478,13 +6319,13 @@
         <v>18</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6492,13 +6333,13 @@
         <v>18</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="149" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6506,13 +6347,13 @@
         <v>18</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6520,13 +6361,13 @@
         <v>18</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6534,13 +6375,13 @@
         <v>18</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6548,13 +6389,13 @@
         <v>18</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6562,13 +6403,13 @@
         <v>18</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6576,13 +6417,13 @@
         <v>18</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6590,13 +6431,13 @@
         <v>18</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6604,13 +6445,13 @@
         <v>18</v>
       </c>
       <c r="B156" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C156" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="C156" s="7" t="s">
-        <v>281</v>
-      </c>
       <c r="D156" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="157" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6618,13 +6459,13 @@
         <v>18</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="158" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6632,13 +6473,13 @@
         <v>18</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="159" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6646,13 +6487,13 @@
         <v>18</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="160" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6660,13 +6501,13 @@
         <v>18</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="161" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6674,13 +6515,13 @@
         <v>18</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6688,13 +6529,13 @@
         <v>18</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="163" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6702,13 +6543,13 @@
         <v>18</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="164" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6716,13 +6557,13 @@
         <v>18</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6730,13 +6571,13 @@
         <v>18</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="166" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6744,13 +6585,13 @@
         <v>18</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="167" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6758,13 +6599,13 @@
         <v>18</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6772,13 +6613,13 @@
         <v>18</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="169" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6786,13 +6627,13 @@
         <v>18</v>
       </c>
       <c r="B169" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C169" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C169" s="9" t="s">
-        <v>282</v>
-      </c>
       <c r="D169" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -6800,13 +6641,13 @@
         <v>18</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="171" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6814,13 +6655,13 @@
         <v>18</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="172" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6828,13 +6669,13 @@
         <v>18</v>
       </c>
       <c r="B172" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="173" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6842,13 +6683,13 @@
         <v>18</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="174" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6856,13 +6697,13 @@
         <v>18</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="175" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6870,13 +6711,13 @@
         <v>18</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6884,13 +6725,13 @@
         <v>18</v>
       </c>
       <c r="B176" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6898,13 +6739,13 @@
         <v>18</v>
       </c>
       <c r="B177" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D177" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="178" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6912,13 +6753,13 @@
         <v>18</v>
       </c>
       <c r="B178" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D178" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="179" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6926,13 +6767,13 @@
         <v>18</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="180" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6940,13 +6781,13 @@
         <v>18</v>
       </c>
       <c r="B180" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="181" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6954,13 +6795,13 @@
         <v>18</v>
       </c>
       <c r="B181" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="182" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -6968,2218 +6809,2218 @@
         <v>18</v>
       </c>
       <c r="B182" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C182" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C182" s="10" t="s">
-        <v>283</v>
-      </c>
       <c r="D182" s="10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="183" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="184" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="185" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="186" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="187" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="188" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="189" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A189" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="190" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="191" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="192" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="193" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="4" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="194" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="195" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="196" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="197" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="198" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="200" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="201" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="202" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="203" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="204" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="205" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="206" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="207" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="208" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="209" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="210" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="211" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="212" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="213" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="214" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A214" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="215" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="216" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="217" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A217" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="218" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="219" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C219" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D219" s="9" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="220" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C220" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D220" s="9" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="221" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C221" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="222" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C222" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D222" s="9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="223" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C223" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="224" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C224" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="225" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C225" s="9" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D225" s="9" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="226" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C226" s="9" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="227" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C227" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="228" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C228" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="229" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D229" s="9" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="230" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D230" s="9" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="231" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B231" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="232" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B232" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="233" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B233" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="234" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B234" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="235" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B235" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="236" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A236" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B236" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="237" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A237" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B237" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="238" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A238" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="239" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A239" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B239" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="240" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B240" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="241" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A241" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B241" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="242" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A242" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B242" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="243" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A243" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="244" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A244" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="245" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A245" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="246" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="247" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="248" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="249" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="250" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="251" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="252" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="253" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="254" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="255" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B255" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D255" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="256" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="257" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="258" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="259" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="261" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="262" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A262" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="263" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="264" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="265" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C265" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D265" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="D265" s="5" t="s">
-        <v>628</v>
-      </c>
       <c r="E265" s="5" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G265" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="266" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F266" s="5" t="s">
         <v>88</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="267" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C267" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E267" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="D267" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="E267" s="5" t="s">
-        <v>629</v>
-      </c>
       <c r="F267" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="268" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C268" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E268" s="5" t="s">
         <v>621</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C268" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="D268" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="E268" s="5" t="s">
-        <v>627</v>
       </c>
       <c r="F268" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="269" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="270" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A270" s="13" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B270" s="13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C270" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D270" s="13" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F270" s="13" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G270" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="271" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A271" s="13" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B271" s="13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C271" s="13" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D271" s="13" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="E271" s="13" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F271" s="13" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="G271" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="272" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A272" s="13" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B272" s="13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C272" s="13" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D272" s="13" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="E272" s="13" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F272" s="13" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G272" s="13" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="273" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A273" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C273" s="9" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D273" s="9" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E273" s="9" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F273" s="9" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G273" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="274" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A274" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B274" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C274" s="9" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D274" s="9" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F274" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G274" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="275" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C275" s="9" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D275" s="9" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="E275" s="9" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F275" s="9" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G275" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="276" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A276" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C276" s="9" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D276" s="9" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="E276" s="9" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F276" s="9" t="s">
         <v>42</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="277" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A277" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B277" s="9" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C277" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D277" s="9" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="E277" s="9" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F277" s="9" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G277" s="9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="278" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A278" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F278" s="4" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="279" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="280" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A280" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="281" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="282" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G282" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="283" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="E283" s="5" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G283" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="284" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G284" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="285" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G285" s="5" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="286" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A286" s="13" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B286" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C286" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D286" s="13" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E286" s="13" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F286" s="13" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G286" s="13" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="287" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A287" s="13" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B287" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C287" s="13" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D287" s="13" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="E287" s="13" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F287" s="13" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G287" s="13" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="288" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A288" s="13" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B288" s="13" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C288" s="13" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D288" s="13" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="E288" s="13" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F288" s="13" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G288" s="13" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="289" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A289" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D289" s="9" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E289" s="9" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F289" s="9" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G289" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="290" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A290" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E290" s="9" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F290" s="9" t="s">
         <v>25</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="291" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D291" s="9" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="E291" s="9" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F291" s="9" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G291" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="292" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A292" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E292" s="9" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F292" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G292" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="293" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D293" s="9" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E293" s="9" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F293" s="9" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G293" s="9" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="294" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C294" s="4" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="295" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="296" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="4" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="297" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G297" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="298" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="G298" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="299" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G299" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="300" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F300" s="5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G300" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="301" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G301" s="5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="302" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="13" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B302" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C302" s="13" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="D302" s="13" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E302" s="13" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F302" s="13" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G302" s="13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="303" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="13" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B303" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C303" s="13" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D303" s="13" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="E303" s="13" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F303" s="13" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="G303" s="13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="304" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A304" s="13" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B304" s="13" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C304" s="13" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D304" s="13" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="E304" s="13" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F304" s="13" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G304" s="13" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="305" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A305" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F305" s="9" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G305" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="306" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A306" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="E306" s="9" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F306" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G306" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="307" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A307" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F307" s="9" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G307" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="308" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A308" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E308" s="9" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F308" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G308" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="309" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A309" s="9" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C309" s="9" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E309" s="9" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F309" s="9" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G309" s="9" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
